--- a/src/shared/data/Book1.xlsx
+++ b/src/shared/data/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nipannee\PlaywrightPOC\src\shared\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96C5EBA-3814-4AF4-83FF-64434100A3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C46537-F42D-47F5-90F7-EFE8B7ABD720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7EA4CCD2-9C05-48AC-B533-48288EB102E4}"/>
+    <workbookView xWindow="2510" yWindow="1270" windowWidth="14400" windowHeight="7270" xr2:uid="{7EA4CCD2-9C05-48AC-B533-48288EB102E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Account Creation" sheetId="1" r:id="rId1"/>
@@ -95,52 +95,52 @@
     <t>nameValidation</t>
   </si>
   <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>E1W 2RG</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>+44 7975 111111</t>
+  </si>
+  <si>
+    <t>+44 7975 222222</t>
+  </si>
+  <si>
+    <t>+44 7975 333333</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>williumOliver@gmail.com</t>
+  </si>
+  <si>
+    <t>Address 1 : Missing required field \"Address 1\"</t>
+  </si>
+  <si>
+    <t>ACV Property Insurance</t>
+  </si>
+  <si>
+    <t>ProducerCode:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account Summary: </t>
+  </si>
+  <si>
+    <t>Assertion Values</t>
+  </si>
+  <si>
     <t>William</t>
-  </si>
-  <si>
-    <t>Oliver</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>E1W 2RG</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>+44 7975 111111</t>
-  </si>
-  <si>
-    <t>+44 7975 222222</t>
-  </si>
-  <si>
-    <t>+44 7975 333333</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>williumOliver@gmail.com</t>
-  </si>
-  <si>
-    <t>Address 1 : Missing required field \"Address 1\"</t>
-  </si>
-  <si>
-    <t>ACV Property Insurance</t>
-  </si>
-  <si>
-    <t>ProducerCode:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account Summary: </t>
-  </si>
-  <si>
-    <t>Assertion Values</t>
   </si>
 </sst>
 </file>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -196,6 +196,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -515,7 +518,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -533,15 +536,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -549,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -557,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -565,7 +568,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -573,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -581,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -589,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -597,7 +600,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -605,7 +608,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -613,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -621,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -629,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -637,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -645,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -653,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -661,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -669,7 +672,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/shared/data/Book1.xlsx
+++ b/src/shared/data/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nipannee\PlaywrightPOC\src\shared\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C46537-F42D-47F5-90F7-EFE8B7ABD720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAED5E0-FD0B-4460-BBB2-146E7A33E79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2510" yWindow="1270" windowWidth="14400" windowHeight="7270" xr2:uid="{7EA4CCD2-9C05-48AC-B533-48288EB102E4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Fields</t>
   </si>
@@ -92,9 +92,6 @@
     <t>producerCode</t>
   </si>
   <si>
-    <t>nameValidation</t>
-  </si>
-  <si>
     <t>Oliver</t>
   </si>
   <si>
@@ -125,29 +122,83 @@
     <t>williumOliver@gmail.com</t>
   </si>
   <si>
-    <t>Address 1 : Missing required field \"Address 1\"</t>
-  </si>
-  <si>
     <t>ACV Property Insurance</t>
   </si>
   <si>
     <t>ProducerCode:16</t>
   </si>
   <si>
-    <t xml:space="preserve">Account Summary: </t>
-  </si>
-  <si>
     <t>Assertion Values</t>
   </si>
   <si>
     <t>William</t>
+  </si>
+  <si>
+    <t>accountHolderName</t>
+  </si>
+  <si>
+    <t>William Oliver</t>
+  </si>
+  <si>
+    <t>Address 1 : Missing required field "Address 1"</t>
+  </si>
+  <si>
+    <t>companyAccount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                           PersonAccount</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>Quantum Leap</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>officePhone</t>
+  </si>
+  <si>
+    <t>serviceTier</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>orgType</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>+44 0121 222 3333 x1234</t>
+  </si>
+  <si>
+    <t>quantumLeap@outlook.com</t>
+  </si>
+  <si>
+    <t>Gold Customer</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Common ownership</t>
+  </si>
+  <si>
+    <t>errorMsg</t>
+  </si>
+  <si>
+    <t>Please specify either a company name or a person name, but not both.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +210,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -187,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -201,6 +260,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A029697-745D-47CC-8970-24D338709230}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,146 +600,261 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C19" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/shared/data/Book1.xlsx
+++ b/src/shared/data/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nipannee\PlaywrightPOC\src\shared\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAED5E0-FD0B-4460-BBB2-146E7A33E79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45949FEB-0E50-494D-A91F-D58C94C91780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2510" yWindow="1270" windowWidth="14400" windowHeight="7270" xr2:uid="{7EA4CCD2-9C05-48AC-B533-48288EB102E4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7EA4CCD2-9C05-48AC-B533-48288EB102E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Account Creation" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Fields</t>
   </si>
@@ -158,24 +158,9 @@
     <t>account</t>
   </si>
   <si>
-    <t>officePhone</t>
-  </si>
-  <si>
-    <t>serviceTier</t>
-  </si>
-  <si>
-    <t>address1</t>
-  </si>
-  <si>
-    <t>orgType</t>
-  </si>
-  <si>
     <t>Company</t>
   </si>
   <si>
-    <t>+44 0121 222 3333 x1234</t>
-  </si>
-  <si>
     <t>quantumLeap@outlook.com</t>
   </si>
   <si>
@@ -188,10 +173,37 @@
     <t>Common ownership</t>
   </si>
   <si>
-    <t>errorMsg</t>
-  </si>
-  <si>
     <t>Please specify either a company name or a person name, but not both.</t>
+  </si>
+  <si>
+    <t>companyOfficePhone</t>
+  </si>
+  <si>
+    <t>companyServiceTier</t>
+  </si>
+  <si>
+    <t>companyCountry</t>
+  </si>
+  <si>
+    <t>companyAddress1</t>
+  </si>
+  <si>
+    <t>companyTown</t>
+  </si>
+  <si>
+    <t>companyPostalCode</t>
+  </si>
+  <si>
+    <t>companyAddressType</t>
+  </si>
+  <si>
+    <t>companyOrgType</t>
+  </si>
+  <si>
+    <t>companyErrorMsg</t>
+  </si>
+  <si>
+    <t>companyPrimaryEmail</t>
   </si>
 </sst>
 </file>
@@ -260,11 +272,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A029697-745D-47CC-8970-24D338709230}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -604,11 +616,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -766,36 +778,36 @@
         <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>19</v>
@@ -803,7 +815,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>20</v>
@@ -811,7 +823,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>20</v>
@@ -819,35 +831,35 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
-        <v>51</v>
+      <c r="A33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/src/shared/data/Book1.xlsx
+++ b/src/shared/data/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nipannee\PlaywrightPOC\src\shared\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/sheryala_sai-keerthi_capgemini_com/Documents/Documents/Beazley/playwrightPOC/src/shared/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45949FEB-0E50-494D-A91F-D58C94C91780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{45949FEB-0E50-494D-A91F-D58C94C91780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A660BED8-E72B-4578-8640-E0A467AE2BC2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7EA4CCD2-9C05-48AC-B533-48288EB102E4}"/>
   </bookViews>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A029697-745D-47CC-8970-24D338709230}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/shared/data/Book1.xlsx
+++ b/src/shared/data/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/sheryala_sai-keerthi_capgemini_com/Documents/Documents/Beazley/playwrightPOC/src/shared/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{45949FEB-0E50-494D-A91F-D58C94C91780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A660BED8-E72B-4578-8640-E0A467AE2BC2}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{45949FEB-0E50-494D-A91F-D58C94C91780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63F53ADC-E65D-4458-88C7-8712C7DF4BD1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7EA4CCD2-9C05-48AC-B533-48288EB102E4}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{7EA4CCD2-9C05-48AC-B533-48288EB102E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Account Creation" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>Fields</t>
   </si>
@@ -152,27 +152,18 @@
     <t>CompanyName</t>
   </si>
   <si>
-    <t>Quantum Leap</t>
-  </si>
-  <si>
     <t>account</t>
   </si>
   <si>
     <t>Company</t>
   </si>
   <si>
-    <t>quantumLeap@outlook.com</t>
-  </si>
-  <si>
     <t>Gold Customer</t>
   </si>
   <si>
     <t>Business</t>
   </si>
   <si>
-    <t>Common ownership</t>
-  </si>
-  <si>
     <t>Please specify either a company name or a person name, but not both.</t>
   </si>
   <si>
@@ -188,9 +179,6 @@
     <t>companyAddress1</t>
   </si>
   <si>
-    <t>companyTown</t>
-  </si>
-  <si>
     <t>companyPostalCode</t>
   </si>
   <si>
@@ -204,13 +192,49 @@
   </si>
   <si>
     <t>companyPrimaryEmail</t>
+  </si>
+  <si>
+    <t>Legal Eagle US</t>
+  </si>
+  <si>
+    <t>417 123 4567</t>
+  </si>
+  <si>
+    <t>legaleagle@gmail.com</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>New Heaven</t>
+  </si>
+  <si>
+    <t>companyState</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>63068-0987</t>
+  </si>
+  <si>
+    <t>Limited partnership</t>
+  </si>
+  <si>
+    <t>companyOrganization</t>
+  </si>
+  <si>
+    <t>companyProducerCode</t>
+  </si>
+  <si>
+    <t>companyCity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +251,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -255,10 +287,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -273,12 +306,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -591,15 +628,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A029697-745D-47CC-8970-24D338709230}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.6328125" style="1" customWidth="1"/>
   </cols>
@@ -616,11 +653,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -759,107 +796,131 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
-        <v>45</v>
+      <c r="A33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +928,10 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1" xr:uid="{D4FD2C73-290B-4CD6-B71C-3BB324544ACE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/shared/data/Book1.xlsx
+++ b/src/shared/data/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/sheryala_sai-keerthi_capgemini_com/Documents/Documents/Beazley/playwrightPOC/src/shared/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/sheryala_sai-keerthi_capgemini_com/Documents/Documents/Beazley/repo1/PlaywrightPOC/src/shared/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{45949FEB-0E50-494D-A91F-D58C94C91780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63F53ADC-E65D-4458-88C7-8712C7DF4BD1}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{45949FEB-0E50-494D-A91F-D58C94C91780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EC15E7F-7C5E-4549-8048-2B8B9DD6E5BB}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{7EA4CCD2-9C05-48AC-B533-48288EB102E4}"/>
+    <workbookView xWindow="3630" yWindow="1520" windowWidth="14400" windowHeight="8360" xr2:uid="{7EA4CCD2-9C05-48AC-B533-48288EB102E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Account Creation" sheetId="1" r:id="rId1"/>
@@ -194,15 +194,9 @@
     <t>companyPrimaryEmail</t>
   </si>
   <si>
-    <t>Legal Eagle US</t>
-  </si>
-  <si>
     <t>417 123 4567</t>
   </si>
   <si>
-    <t>legaleagle@gmail.com</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
@@ -228,13 +222,19 @@
   </si>
   <si>
     <t>companyCity</t>
+  </si>
+  <si>
+    <t>Cornish Cravings US</t>
+  </si>
+  <si>
+    <t>cornishcravings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,14 +251,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -287,11 +279,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -306,16 +297,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -329,6 +316,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -630,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A029697-745D-47CC-8970-24D338709230}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,11 +644,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -796,18 +787,18 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -823,15 +814,15 @@
         <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>54</v>
+      <c r="B25" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -847,7 +838,7 @@
         <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -855,23 +846,23 @@
         <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -879,10 +870,10 @@
         <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -895,12 +886,12 @@
         <v>49</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>28</v>
@@ -908,7 +899,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>29</v>
@@ -928,10 +919,7 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" xr:uid="{D4FD2C73-290B-4CD6-B71C-3BB324544ACE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>